--- a/第十三届省赛B组/十三届B组.xlsx
+++ b/第十三届省赛B组/十三届B组.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/蓝桥杯/第十三届省赛B组/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1054FEE2-9649-9048-8C92-E3DAA53D2F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFF8E2F-8CDC-0946-91B2-0DC7E88B2811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1800" windowWidth="28240" windowHeight="17440" xr2:uid="{EFBBEAE8-9FB9-744A-B2F9-804D80280510}"/>
   </bookViews>
@@ -35,7 +35,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>5*1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*5*2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*5*3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*5*4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*5*5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -91,11 +168,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF595E8E-0257-F641-83A5-8B8B759AFC38}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="141" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection sqref="A1:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -422,204 +499,375 @@
     <col min="1" max="6" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1">
-      <c r="A1">
+    <row r="1" spans="1:4" ht="30" customHeight="1">
+      <c r="A1" s="1">
         <v>5</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1">
-      <c r="A2">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1">
+      <c r="A2" s="1">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1">
-      <c r="A3">
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1">
+      <c r="A3" s="1">
         <v>15</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" customHeight="1">
-      <c r="A4">
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" customHeight="1">
+      <c r="A4" s="1">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" customHeight="1">
-      <c r="A5">
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1">
+      <c r="A5" s="1">
         <v>25</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" customHeight="1">
-      <c r="A6">
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" customHeight="1">
+      <c r="A6" s="1">
         <v>30</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" customHeight="1">
-      <c r="A7">
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" customHeight="1">
+      <c r="A7" s="1">
         <v>35</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1">
-      <c r="A8">
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1">
+      <c r="A8" s="1">
         <v>40</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" customHeight="1">
-      <c r="A9">
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1">
+      <c r="A9" s="1">
         <v>45</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" customHeight="1">
-      <c r="A10">
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1">
+      <c r="A10" s="1">
         <v>50</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1">
-      <c r="A11">
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1">
+      <c r="A11" s="1">
         <v>55</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" customHeight="1">
-      <c r="A12">
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1">
+      <c r="A12" s="1">
         <v>60</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="30" customHeight="1">
-      <c r="A13">
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1">
+      <c r="A13" s="1">
         <v>65</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" customHeight="1">
-      <c r="A14">
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" customHeight="1">
+      <c r="A14" s="1">
         <v>70</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="30" customHeight="1">
-      <c r="A15">
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" customHeight="1">
+      <c r="A15" s="1">
         <v>75</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="30" customHeight="1">
-      <c r="A16">
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" customHeight="1">
+      <c r="A16" s="1">
         <v>80</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
-      <c r="A17">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="1">
         <v>85</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1">
-      <c r="A18">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="1">
         <v>90</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1">
-      <c r="A19">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="1">
         <v>95</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1">
-      <c r="A20">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="1">
         <v>100</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" customHeight="1">
-      <c r="A21">
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="1">
         <v>105</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" customHeight="1">
-      <c r="A22">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="1">
         <v>110</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" customHeight="1">
-      <c r="A23">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="1">
         <v>115</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" customHeight="1">
-      <c r="A24">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="1">
         <v>120</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" customHeight="1">
-      <c r="A25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="1">
         <v>125</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>31</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>130</v>
+      </c>
+      <c r="B26" s="1">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
